--- a/VBA_PY_Code_List.xlsx
+++ b/VBA_PY_Code_List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t>文件名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,9 +49,6 @@
     <t>财务分析数据底稿0426</t>
   </si>
   <si>
-    <t>财务历年报表</t>
-  </si>
-  <si>
     <t>国寿养老安徽分公司银行存款日记账</t>
   </si>
   <si>
@@ -82,10 +79,6 @@
   </si>
   <si>
     <t>财务分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据汇总</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -502,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -520,7 +513,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -532,276 +525,255 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>38</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
